--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_29.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_29.xlsx
@@ -508,50 +508,50 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_0</t>
+          <t>model_1_29_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9483423749941486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7453882478687495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7353169924352358</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8981044664487976</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1810863510920748</v>
       </c>
       <c r="G2" t="n">
-        <v>1.173451248867095</v>
+        <v>1.70258995888099</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9467557708565876</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2657704125951422</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.693703663752751</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4255424198503303</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9296577021196918</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4322442875766166</v>
       </c>
       <c r="N2" t="n">
-        <v>143.7767041506904</v>
+        <v>37.41756256725001</v>
       </c>
       <c r="O2" t="n">
-        <v>285.1118766939068</v>
+        <v>74.38214615547582</v>
       </c>
     </row>
     <row r="3">
@@ -561,193 +561,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9482849103082706</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7453830050833831</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7351928459586871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8988422057110992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1812877941565041</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173451248867095</v>
+        <v>1.702625017410876</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9471998356047764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2638461941206299</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.700835554857582</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4257790438202708</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9295794523346663</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4324846381375465</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7767041506904</v>
+        <v>37.41533897500072</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1118766939068</v>
+        <v>74.37992256322654</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_2</t>
+          <t>model_1_29_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9482240479236205</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7453675946247956</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7350823515710748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8995865414304415</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1815011478899323</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173451248867095</v>
+        <v>1.702728067218409</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9475950676224326</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2619047703472364</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.708087047976342</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4260295152802588</v>
       </c>
       <c r="L4" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9294965758959939</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4327390542726497</v>
       </c>
       <c r="N4" t="n">
-        <v>143.7767041506904</v>
+        <v>37.41298660166959</v>
       </c>
       <c r="O4" t="n">
-        <v>285.1118766939068</v>
+        <v>74.37757018989541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_3</t>
+          <t>model_1_29_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9486231781482056</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7451992262700137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7362983977853446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8937898440140833</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1801019926641065</v>
       </c>
       <c r="G5" t="n">
-        <v>1.173451248867095</v>
+        <v>1.703853947182101</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9432453408244006</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2770240852999428</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.653561928083733</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4243842511970802</v>
       </c>
       <c r="L5" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9300400723720247</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4310678789248218</v>
       </c>
       <c r="N5" t="n">
-        <v>143.7767041506904</v>
+        <v>37.42846392530414</v>
       </c>
       <c r="O5" t="n">
-        <v>285.1118766939068</v>
+        <v>74.39304751352996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_29_4</t>
+          <t>model_1_29_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9485836191045725</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7451948382895073</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7361662215879317</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8944768335384027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1802406673101714</v>
       </c>
       <c r="G6" t="n">
-        <v>1.173451248867095</v>
+        <v>1.703883289627952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9437181274185305</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2752322355204319</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.659784483629047</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4245476031143874</v>
       </c>
       <c r="L6" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9299862047381412</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4312338034715346</v>
       </c>
       <c r="N6" t="n">
-        <v>143.7767041506904</v>
+        <v>37.42692456104545</v>
       </c>
       <c r="O6" t="n">
-        <v>285.1118766939068</v>
+        <v>74.39150814927127</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9488384103114681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.745027924391293</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7374125900767405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8891321635307816</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.179347494038232</v>
       </c>
       <c r="G7" t="n">
-        <v>1.173451248867095</v>
+        <v>1.704999443633879</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9392599396026579</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2891725438303788</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.61179424596066</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4234943848957528</v>
       </c>
       <c r="L7" t="n">
-        <v>1.015676519475498</v>
+        <v>0.93033315446668</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4301639981187884</v>
       </c>
       <c r="N7" t="n">
-        <v>143.7767041506904</v>
+        <v>37.43686009513482</v>
       </c>
       <c r="O7" t="n">
-        <v>285.1118766939068</v>
+        <v>74.40144368336064</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9488780471416186</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7446482371999232</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7380375671746202</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8877423923211554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.179208546710708</v>
       </c>
       <c r="G8" t="n">
-        <v>1.173451248867095</v>
+        <v>1.707538413630866</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9370244327617968</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2927974335082922</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.599529967939766</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4233303045031244</v>
       </c>
       <c r="L8" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9303871280226296</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4299973336239963</v>
       </c>
       <c r="N8" t="n">
-        <v>143.7767041506904</v>
+        <v>37.43841017176094</v>
       </c>
       <c r="O8" t="n">
-        <v>285.1118766939068</v>
+        <v>74.40299375998676</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.948948339472597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7446300426286566</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7385799835658537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8853248197931642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1789621362006389</v>
       </c>
       <c r="G9" t="n">
-        <v>1.173451248867095</v>
+        <v>1.707660080812705</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9350842407814636</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.2991030999673625</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.578175249958583</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4230391662726265</v>
       </c>
       <c r="L9" t="n">
-        <v>1.015676519475498</v>
+        <v>0.930482845239281</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4297016102573995</v>
       </c>
       <c r="N9" t="n">
-        <v>143.7767041506904</v>
+        <v>37.44116205024459</v>
       </c>
       <c r="O9" t="n">
-        <v>285.1118766939068</v>
+        <v>74.40574563847041</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9490292483919216</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7444212291065605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7398471905239332</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8801766263300501</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1786785091277794</v>
       </c>
       <c r="G10" t="n">
-        <v>1.173451248867095</v>
+        <v>1.70905641779646</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9305515149692949</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.3125309456552593</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.533614282438349</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4227038077990065</v>
       </c>
       <c r="L10" t="n">
-        <v>1.015676519475498</v>
+        <v>0.930593019086872</v>
       </c>
       <c r="M10" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4293609702230555</v>
       </c>
       <c r="N10" t="n">
-        <v>143.7767041506904</v>
+        <v>37.44433425268885</v>
       </c>
       <c r="O10" t="n">
-        <v>285.1118766939068</v>
+        <v>74.40891784091467</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9490298665439987</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7442999497025542</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7400693552581891</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999089189621845</v>
+        <v>0.8795895316764428</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1786763421891319</v>
       </c>
       <c r="G11" t="n">
-        <v>1.173451248867095</v>
+        <v>1.70986741372949</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9297568445967129</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0002680861204509495</v>
+        <v>0.3140622432782624</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.528661356218978</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4227012446032445</v>
       </c>
       <c r="L11" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9305938608258706</v>
       </c>
       <c r="M11" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4293583666595225</v>
       </c>
       <c r="N11" t="n">
-        <v>143.7767041506904</v>
+        <v>37.44435850800414</v>
       </c>
       <c r="O11" t="n">
-        <v>285.1118766939068</v>
+        <v>74.40894209622996</v>
       </c>
     </row>
   </sheetData>
